--- a/Tennis/ATP Tour/Rafael Nadal.xlsx
+++ b/Tennis/ATP Tour/Rafael Nadal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Tennis\ATP Tour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6267" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D73EC1-F639-4D6C-8E88-60C1F6CDD8E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -35,9 +35,10 @@
     <sheet name="2020" sheetId="27" r:id="rId20"/>
     <sheet name="2021" sheetId="33" r:id="rId21"/>
     <sheet name="2022" sheetId="28" r:id="rId22"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId23"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId24"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId25"/>
+    <sheet name="2023" sheetId="36" r:id="rId23"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId24"/>
+    <sheet name="Wins-Losses" sheetId="34" r:id="rId25"/>
+    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6100" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6116" uniqueCount="1125">
   <si>
     <t>ROUND</t>
   </si>
@@ -3423,6 +3424,15 @@
   </si>
   <si>
     <t>3-6 7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>Jack Draper (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>7-5 2-6 6-4 6-1</t>
+  </si>
+  <si>
+    <t>Mackie MacDonald (USA)</t>
   </si>
 </sst>
 </file>
@@ -6048,10 +6058,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6341,7 +6347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15552,8 +15558,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18570,7 +18576,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E60" activeCellId="7" sqref="E26 E30 E33 E50 E55 E57 E59 E60"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19369,14 +19375,95 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7EFF07-21FF-4184-8DD8-2D7150B35379}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19427,7 +19514,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F24" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -19878,57 +19965,78 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2">
-        <f>SUM(B2:B23)</f>
-        <v>330</v>
-      </c>
-      <c r="C24" s="2">
-        <f>SUM(C2:C23)</f>
-        <v>92</v>
-      </c>
-      <c r="D24" s="2">
-        <f>SUM(D2:D23)</f>
-        <v>1089</v>
-      </c>
-      <c r="E24" s="2">
-        <f>SUM(E2:E23)</f>
-        <v>224</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.79430670339761245</v>
+      <c r="A24">
+        <v>2023</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <f>SUM(B2:B24)</f>
+        <v>331</v>
+      </c>
+      <c r="C25" s="2">
+        <f>SUM(C2:C24)</f>
+        <v>92</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM(D2:D24)</f>
+        <v>1090</v>
+      </c>
+      <c r="E25" s="2">
+        <f>SUM(E2:E24)</f>
+        <v>225</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25:F26" si="1">(D25-E25)/D25</f>
+        <v>0.79357798165137616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2">
-        <f>AVERAGE(B2:B23)</f>
-        <v>15</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C2:C23)</f>
-        <v>4.1818181818181817</v>
-      </c>
-      <c r="D25" s="2">
-        <f>AVERAGE(D2:D23)</f>
-        <v>49.5</v>
-      </c>
-      <c r="E25" s="2">
-        <f>AVERAGE(E2:E23)</f>
-        <v>10.181818181818182</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="B26" s="2">
+        <f>AVERAGE(B2:B24)</f>
+        <v>14.391304347826088</v>
+      </c>
+      <c r="C26" s="2">
+        <f>AVERAGE(C2:C24)</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <f>AVERAGE(D2:D24)</f>
+        <v>47.391304347826086</v>
+      </c>
+      <c r="E26" s="2">
+        <f>AVERAGE(E2:E24)</f>
+        <v>9.7826086956521738</v>
+      </c>
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
-        <v>0.79430670339761256</v>
+        <v>0.79357798165137616</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F23">
+  <conditionalFormatting sqref="F2:F24">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/ATP Tour/Rafael Nadal.xlsx
+++ b/Tennis/ATP Tour/Rafael Nadal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Tennis\ATP Tour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -19381,8 +19381,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19462,7 +19462,7 @@
   </sheetPr>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Rafael Nadal.xlsx
+++ b/Tennis/ATP Tour/Rafael Nadal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198D0CFF-B60D-4DB7-87C7-6C3CA63C7EC6}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194846E2-EE2F-4E87-81C8-45F85A0EB5E5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6164" uniqueCount="1131">
   <si>
     <t>ROUND</t>
   </si>
@@ -3440,6 +3440,18 @@
   </si>
   <si>
     <t>Flavio Cobolli (ITALY)</t>
+  </si>
+  <si>
+    <t>Darwin Blanch (USA)</t>
+  </si>
+  <si>
+    <t>Pedro Cachín (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Jiří Lehečka (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-1 6-7(5) 6-3</t>
   </si>
 </sst>
 </file>
@@ -3815,7 +3827,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4007,7 +4019,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,7 +4615,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6092,6 +6104,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -18610,7 +18626,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C35" sqref="C35:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19494,20 +19510,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" activeCellId="2" sqref="E2:E3 E6 E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -19610,6 +19626,68 @@
       </c>
       <c r="F7" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>967</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -20153,20 +20231,20 @@
         <v>2024</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
         <v>3</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -20175,7 +20253,7 @@
       </c>
       <c r="B26" s="2">
         <f>SUM(B2:B25)</f>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C26" s="2">
         <f>SUM(C2:C25)</f>
@@ -20183,15 +20261,15 @@
       </c>
       <c r="D26" s="2">
         <f>SUM(D2:D25)</f>
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E26" s="2">
         <f>SUM(E2:E25)</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ref="F26:F27" si="1">(D26-E26)/D26</f>
-        <v>0.79231473010064046</v>
+        <v>0.79197080291970801</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -20200,7 +20278,7 @@
       </c>
       <c r="B27" s="2">
         <f>AVERAGE(B2:B25)</f>
-        <v>13.875</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="C27" s="2">
         <f>AVERAGE(C2:C25)</f>
@@ -20208,15 +20286,15 @@
       </c>
       <c r="D27" s="2">
         <f>AVERAGE(D2:D25)</f>
-        <v>45.541666666666664</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="E27" s="2">
         <f>AVERAGE(E2:E25)</f>
-        <v>9.4583333333333339</v>
+        <v>9.5</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>0.79231473010064035</v>
+        <v>0.79197080291970801</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Rafael Nadal.xlsx
+++ b/Tennis/ATP Tour/Rafael Nadal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DC1380-907B-4276-86EA-64CAC4B46295}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35386BA-932A-4BCA-B77D-2E238611855A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6180" uniqueCount="1134">
   <si>
     <t>ROUND</t>
   </si>
@@ -3458,6 +3458,9 @@
   </si>
   <si>
     <t>Hubert Hurkacz (POLAND)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5) 6-3</t>
   </si>
 </sst>
 </file>
@@ -4025,7 +4028,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,7 +4624,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18632,7 +18635,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C38"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19516,10 +19519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19728,6 +19731,26 @@
       </c>
       <c r="F15" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -20271,7 +20294,7 @@
         <v>2024</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -20280,11 +20303,11 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -20293,7 +20316,7 @@
       </c>
       <c r="B26" s="2">
         <f>SUM(B2:B25)</f>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C26" s="2">
         <f>SUM(C2:C25)</f>
@@ -20305,11 +20328,11 @@
       </c>
       <c r="E26" s="2">
         <f>SUM(E2:E25)</f>
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ref="F26:F27" si="1">(D26-E26)/D26</f>
-        <v>0.79124886052871468</v>
+        <v>0.79033728350045573</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -20318,7 +20341,7 @@
       </c>
       <c r="B27" s="2">
         <f>AVERAGE(B2:B25)</f>
-        <v>13.958333333333334</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <f>AVERAGE(C2:C25)</f>
@@ -20330,11 +20353,11 @@
       </c>
       <c r="E27" s="2">
         <f>AVERAGE(E2:E25)</f>
-        <v>9.5416666666666661</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>0.79124886052871479</v>
+        <v>0.79033728350045573</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Rafael Nadal.xlsx
+++ b/Tennis/ATP Tour/Rafael Nadal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E5E8DC1-2FF2-442F-960A-51610D8155B0}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B667C5-2D77-41B0-99D8-6D9A1F342FF1}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="16" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15285" firstSheet="16" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -37,9 +37,7 @@
     <sheet name="2022" sheetId="28" r:id="rId22"/>
     <sheet name="2023" sheetId="36" r:id="rId23"/>
     <sheet name="2024" sheetId="37" r:id="rId24"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId25"/>
-    <sheet name="Wins-Losses" sheetId="38" r:id="rId26"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId27"/>
+    <sheet name="Stats" sheetId="1" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3684,7 +3682,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3705,7 +3703,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$25</c:f>
+              <c:f>Stats!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3786,7 +3784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$25</c:f>
+              <c:f>Stats!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3867,7 +3865,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C36A-4F8D-BBB7-848020C55065}"/>
+              <c16:uniqueId val="{00000000-F48C-440F-9DEB-2E248377EC56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3876,7 +3874,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3897,7 +3895,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$25</c:f>
+              <c:f>Stats!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3978,7 +3976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$25</c:f>
+              <c:f>Stats!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4059,7 +4057,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C36A-4F8D-BBB7-848020C55065}"/>
+              <c16:uniqueId val="{00000001-F48C-440F-9DEB-2E248377EC56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4361,6 +4359,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4444,7 +4447,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4493,7 +4496,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$25</c:f>
+              <c:f>Stats!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4574,7 +4577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$25</c:f>
+              <c:f>Stats!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4656,7 +4659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4809-4090-B8D0-E3ABD390FDE1}"/>
+              <c16:uniqueId val="{00000001-F0D4-46EC-8331-6E44C3BFC833}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4958,6 +4961,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6047,47 +6055,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9873DBF0-FC37-47E7-A059-8A5671C724FE}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A35D7A07-D84A-46B5-A135-9DA71CA70FC7}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CDF836-058D-6E87-C1A1-1336E3196373}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0C1B39-FCB2-E654-EEAE-ACF844732220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6100,27 +6092,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F323C1-A1ED-233A-D530-60350DADC07F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED933E28-7976-7127-FD46-01AA35656771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6128,12 +6123,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6443,7 +6438,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6524,7 +6519,7 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7807,7 +7802,7 @@
   </sheetPr>
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9118,7 +9113,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9918,7 +9913,7 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11233,7 +11228,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12210,7 +12205,7 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13532,7 +13527,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14428,7 +14423,7 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15641,7 +15636,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16428,7 +16423,7 @@
   </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17511,7 +17506,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17688,7 +17683,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18163,7 +18158,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18658,7 +18653,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19464,7 +19459,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19545,7 +19540,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19918,7 +19913,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20523,6 +20518,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20533,7 +20529,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21555,7 +21551,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22389,7 +22385,7 @@
   </sheetPr>
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -23808,7 +23804,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -24959,7 +24955,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -26330,7 +26326,7 @@
   </sheetPr>
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -27797,7 +27793,7 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Rafael Nadal.xlsx
+++ b/Tennis/ATP Tour/Rafael Nadal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55B667C5-2D77-41B0-99D8-6D9A1F342FF1}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{0A1EECD3-9448-4D45-9666-76DA02865CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430B65DE-A5BF-419A-AC7D-E8ADB305060C}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15285" firstSheet="16" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2001" sheetId="7" r:id="rId1"/>
@@ -6096,7 +6096,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -19540,8 +19540,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19912,8 +19912,8 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
